--- a/biology/Botanique/Cistaceae/Cistaceae.xlsx
+++ b/biology/Botanique/Cistaceae/Cistaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cistaceae (Cistacées) est constituée de plantes dicotylédones ; elle comprend moins de 200 espèces réparties en 8 à 10 genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Cistus qui a été donné à ces plantes par Joseph Pitton de Tournefort. Il est assez proche des formes utilisées dans l'antiquité grecque et latine (en grec ancien, κίσθος, et en latin, cisthos chez Pline). « Ciste » est la francisation du grec kistos, « boîte, capsule » qui évoque la forme du fruit[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Cistus qui a été donné à ces plantes par Joseph Pitton de Tournefort. Il est assez proche des formes utilisées dans l'antiquité grecque et latine (en grec ancien, κίσθος, et en latin, cisthos chez Pline). « Ciste » est la francisation du grec kistos, « boîte, capsule » qui évoque la forme du fruit.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce sont des arbustes, des plantes herbacées, poilues ou velues, pérennes ou annuelles, à feuilles simples souvent opposées, à fleurs solitaires ou en cymes, à 5 pétales libres, des régions tempérées à subtropicales surtout présents autour du bassin méditerranéen.
 Parmi les différents genres, on peut citer dans la flore de France :
@@ -575,7 +591,9 @@
           <t>Utilisation[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces et hybrides de Cistus, Halimium et Helianthemum sont cultivés comme plantes ornementales.
 Les feuilles de plusieurs espèces de Cistus produisent le ladanum, résine aromatique jadis utilisée en médecine.
@@ -607,10 +625,12 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malvales.
-La classification phylogénétique APG IV (2016)[3] incorpore dans cette famille les Pakaraimaea (auparavant Dipterocarpaceae).
+La classification phylogénétique APG IV (2016) incorpore dans cette famille les Pakaraimaea (auparavant Dipterocarpaceae).
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016) :
 genre Cistus L.
 genre Fumana (Dunal) Spach
 genre X Halimiocistus Janch.
@@ -650,7 +672,7 @@
 genre Hudsonia L.
 genre Lechea L.
 genre Tuberaria (Dunal) Spach
-Selon NCBI  (16 octobre 2016)[5] :
+Selon NCBI  (16 octobre 2016) :
 genre Cistus
 genre Crocanthemum
 genre Fumana
@@ -659,7 +681,7 @@
 genre Hudsonia
 genre Lechea
 genre Tuberaria
-Selon DELTA Angio           (16 octobre 2016)[6] :
+Selon DELTA Angio           (16 octobre 2016) :
 genre Atlanthemum
 genre Cistus
 genre Crocanthemum
@@ -670,7 +692,7 @@
 genre Lechea
 genre Therocistus
 genre Turberaria
-Selon ITIS      (16 octobre 2016)[7] :
+Selon ITIS      (16 octobre 2016) :
 genre Cistus L.
 genre Halimium (Dunal) Spach
 genre Helianthemum P. Mill.
@@ -704,9 +726,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (21 juin 2010)[8] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (21 juin 2010) :
 genre Cistus
 Cistus albanicus
 Cistus albidus
